--- a/home/static/excel/basic.xlsx
+++ b/home/static/excel/basic.xlsx
@@ -514,6 +514,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,12 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,12 +826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" style="12" customWidth="1"/>
     <col min="3" max="4" width="15.6640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="6" customWidth="1"/>
@@ -849,14 +848,14 @@
       <c r="F1" s="23"/>
     </row>
     <row r="2" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="25" t="s">
         <v>52</v>
       </c>
@@ -924,22 +923,22 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="35" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="26" t="s">
         <v>47</v>
       </c>
@@ -1034,48 +1033,48 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39" t="s">
+      <c r="C14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="29" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="12"/>
@@ -1241,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ref="C22:J22" si="4">SUM(C16:C21)</f>
+        <f t="shared" ref="C22:H22" si="4">SUM(C16:C21)</f>
         <v>0</v>
       </c>
       <c r="D22" s="5">
@@ -1307,21 +1306,21 @@
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39" t="s">
+      <c r="C25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -1329,29 +1328,29 @@
       <c r="P25" s="11"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="29" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="14"/>
@@ -1591,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" ref="C36:J36" si="9">SUM(C27:C35)</f>
+        <f t="shared" ref="C36:H36" si="9">SUM(C27:C35)</f>
         <v>0</v>
       </c>
       <c r="D36" s="5">
@@ -1642,24 +1641,24 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="20" t="s">
         <v>16</v>
       </c>

--- a/home/static/excel/basic.xlsx
+++ b/home/static/excel/basic.xlsx
@@ -205,10 +205,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>누적(탈퇴자포함)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>신규</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -278,6 +274,10 @@
   </si>
   <si>
     <t>기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적(탈퇴자제외)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -514,6 +514,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,12 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -849,14 +849,14 @@
       <c r="F1" s="23"/>
     </row>
     <row r="2" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="25" t="s">
         <v>52</v>
       </c>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="8"/>
@@ -911,7 +911,7 @@
     </row>
     <row r="6" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -924,22 +924,22 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="26" t="s">
         <v>47</v>
       </c>
@@ -947,7 +947,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>45</v>
@@ -956,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -966,12 +966,12 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -996,13 +996,13 @@
         <v>44</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1034,48 +1034,48 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39" t="s">
+      <c r="C14" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="29" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="12"/>
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ref="C22:J22" si="4">SUM(C16:C21)</f>
+        <f t="shared" ref="C22:H22" si="4">SUM(C16:C21)</f>
         <v>0</v>
       </c>
       <c r="D22" s="5">
@@ -1307,21 +1307,21 @@
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39" t="s">
+      <c r="C25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -1329,29 +1329,29 @@
       <c r="P25" s="11"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="29" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="14"/>
@@ -1591,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" ref="C36:J36" si="9">SUM(C27:C35)</f>
+        <f t="shared" ref="C36:H36" si="9">SUM(C27:C35)</f>
         <v>0</v>
       </c>
       <c r="D36" s="5">
@@ -1642,24 +1642,24 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="20" t="s">
         <v>16</v>
       </c>
@@ -2448,10 +2448,10 @@
         <v>34</v>
       </c>
       <c r="H2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>36</v>
@@ -2459,12 +2459,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K3" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K4" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
